--- a/data/case1/5/Q2_1.xlsx
+++ b/data/case1/5/Q2_1.xlsx
@@ -56,172 +56,172 @@
   <dimension ref="A1:A33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.1182193897586501</v>
+        <v>0.072341782119728748</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999513706825</v>
+        <v>-0.0059999999515270019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999609836578</v>
+        <v>0.011248036374084336</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999272626354</v>
+        <v>-0.0079999999312736492</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999649827913</v>
+        <v>-0.0029999999707026603</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.014557171231185606</v>
+        <v>-0.0019999999788407052</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999046276322</v>
+        <v>-0.0099999999148452368</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999013786756</v>
+        <v>-0.009999999913109292</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.001999999961376453</v>
+        <v>-0.0019999999756792342</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.001999999958369969</v>
+        <v>-0.001999999975096145</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999510517128</v>
+        <v>-0.0029999999671748157</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999463858344</v>
+        <v>-0.0034999999632270296</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999439184748</v>
+        <v>-0.0034999999641973645</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999077795536</v>
+        <v>0.0039371701147015159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999996316135764</v>
+        <v>-0.00099999998503275123</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999552942072</v>
+        <v>0.010025298565358387</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0069171537984935583</v>
+        <v>-0.0019999999764612753</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999396727048</v>
+        <v>-0.0039999999601896263</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999669007025</v>
+        <v>-0.0039999999681108456</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999644635409</v>
+        <v>-0.0039999999654227736</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999640860651</v>
+        <v>-0.0039999999649529272</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999637831962</v>
+        <v>-0.003999999964558576</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999502592374</v>
+        <v>-0.0049999999529886097</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999826782577</v>
+        <v>-0.019999999828372417</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999824313441</v>
+        <v>-0.019999999825535575</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999649306659</v>
+        <v>0.072433875515187651</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999648742666</v>
+        <v>-0.0024999999738439804</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999689819248</v>
+        <v>-0.0019999999706801219</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999297731819</v>
+        <v>-0.0069999999258518741</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021960375598065962</v>
+        <v>-0.059999999502931001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999350365272</v>
+        <v>-0.0069999999283307801</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999999130133688</v>
+        <v>0.039929749545276394</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.049797287243796617</v>
+        <v>-0.0039999999537432274</v>
       </c>
     </row>
   </sheetData>
